--- a/Documentation/Journaux/OwnJournal de bord (Enregistré automatiquement).xlsx
+++ b/Documentation/Journaux/OwnJournal de bord (Enregistré automatiquement).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arlindo.TAVARES-VARE\Bataille-Navale-2021\Documentation\Journeaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arlindo.TAVARES-VARE\Bataille-Navale-2021\Documentation\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="53">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Contradictions sur GitHub</t>
   </si>
   <si>
-    <t>Nb heures bataille navale</t>
-  </si>
-  <si>
     <t>Types de tâches</t>
   </si>
   <si>
@@ -173,6 +170,23 @@
   </si>
   <si>
     <t>implémentation code + debug + mise à jour journaux</t>
+  </si>
+  <si>
+    <t>Documentation sur langage C, essais pour comprendre comment arriver à implémenter une 
+fonction pour déterminer lorsque les bateaux sont coulés</t>
+  </si>
+  <si>
+    <t>Implémentation code</t>
+  </si>
+  <si>
+    <t>implémentation code</t>
+  </si>
+  <si>
+    <t>crée bugs en tentant d'avancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> documentation (recherche  pour comprendre 
+comment faire pour déterminer lorsqu'un bateau est coulé)</t>
   </si>
 </sst>
 </file>
@@ -558,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -707,9 +721,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1027,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.44140625" defaultRowHeight="41.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1038,21 +1049,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>2</v>
@@ -1081,10 +1092,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1101,10 +1112,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1118,13 +1129,13 @@
         <v>0.75</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1138,13 +1149,13 @@
         <v>1.75</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1158,10 +1169,10 @@
         <v>1.3</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="18"/>
     </row>
@@ -1176,13 +1187,13 @@
         <v>2.5</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1196,10 +1207,10 @@
         <v>0.75</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="18"/>
     </row>
@@ -1214,10 +1225,10 @@
         <v>1.5</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="18"/>
     </row>
@@ -1232,10 +1243,10 @@
         <v>0.75</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="18"/>
     </row>
@@ -1250,16 +1261,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="27">
-        <v>44232</v>
+        <v>44260</v>
       </c>
       <c r="C13" s="42">
         <v>2</v>
@@ -1268,17 +1279,17 @@
         <v>2</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28"/>
       <c r="B14" s="27">
-        <v>44233</v>
+        <v>44261</v>
       </c>
       <c r="C14" s="41">
         <v>2</v>
@@ -1288,14 +1299,14 @@
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="27">
-        <v>44234</v>
+        <v>44262</v>
       </c>
       <c r="C15" s="43">
         <v>2</v>
@@ -1304,16 +1315,16 @@
         <v>4</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="27">
-        <v>44235</v>
+        <v>44263</v>
       </c>
       <c r="C16" s="41">
         <v>3</v>
@@ -1322,16 +1333,16 @@
         <v>5</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="27">
-        <v>44236</v>
+        <v>44264</v>
       </c>
       <c r="C17" s="41">
         <v>3</v>
@@ -1340,16 +1351,16 @@
         <v>2</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="27">
-        <v>44237</v>
+        <v>44265</v>
       </c>
       <c r="C18" s="41">
         <v>3</v>
@@ -1358,16 +1369,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="27">
-        <v>44238</v>
+        <v>44266</v>
       </c>
       <c r="C19" s="41">
         <v>3</v>
@@ -1376,16 +1387,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="27">
-        <v>44239</v>
+        <v>44267</v>
       </c>
       <c r="C20" s="41">
         <v>3</v>
@@ -1393,37 +1404,58 @@
       <c r="D20" s="23">
         <v>4</v>
       </c>
-      <c r="E20" s="22"/>
+      <c r="E20" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="F20" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="13"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="32"/>
+      <c r="B21" s="13">
+        <v>44268</v>
+      </c>
+      <c r="C21" s="41">
+        <v>4</v>
+      </c>
+      <c r="D21" s="23">
+        <v>1</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="13"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="13">
+        <v>44271</v>
+      </c>
+      <c r="C22" s="41">
+        <v>4</v>
+      </c>
+      <c r="D22" s="23">
+        <v>3</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="G22" s="32"/>
     </row>
     <row r="23" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="52" t="s">
-        <v>14</v>
+      <c r="B23" s="13">
+        <v>44272</v>
       </c>
       <c r="C23" s="42"/>
-      <c r="D23" s="38">
-        <f>SUM(D3:D20)</f>
-        <v>41.8</v>
-      </c>
+      <c r="D23" s="23"/>
       <c r="E23" s="22"/>
       <c r="F23" s="35"/>
       <c r="G23" s="36"/>
@@ -1585,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1598,13 +1630,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="2:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="s">
@@ -1625,124 +1657,124 @@
     </row>
     <row r="3" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="12">
         <v>44242</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="13">
         <v>44244</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="13">
         <v>44244</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="13">
         <v>44273</v>
       </c>
       <c r="D6" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="13">
         <v>44274</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="13">
         <v>44255</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="13">
         <v>44256</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="13">
         <v>44257</v>
@@ -1750,12 +1782,12 @@
       <c r="D10" s="25"/>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13">
         <v>3</v>
@@ -1765,147 +1797,255 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="13">
         <v>44259</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="44">
         <v>44260</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="44">
         <v>44261</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="44">
         <v>44262</v>
       </c>
-      <c r="D15" s="53" t="s">
-        <v>38</v>
+      <c r="D15" s="52" t="s">
+        <v>37</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="44">
         <v>44263</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="44">
         <v>44264</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="44">
         <v>44265</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="44">
         <v>44266</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="44">
         <v>44267</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="F20" s="45" t="s">
-        <v>26</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="44">
+        <v>44268</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="44">
+        <v>44271</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="44"/>
+    </row>
+    <row r="29" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="44"/>
+    </row>
+    <row r="30" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="44"/>
+    </row>
+    <row r="31" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="44"/>
+    </row>
+    <row r="32" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1931,7 +2071,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1941,37 +2081,37 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
